--- a/VectorDataInExcel-DataDictionary.xlsx
+++ b/VectorDataInExcel-DataDictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tewaka-my.sharepoint.com/personal/nil0310_arastudent_ac_nz/Documents/Year 2/Semester 1/Database/Assignment1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\OneDrive - Ara Institute of Canterbury\Year 2\Semester 1\Database\Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{FFFC10B6-66E2-4351-A998-9945D4A57614}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{0A5FF758-EBC3-4C35-8F8E-29CF69BE0E5E}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="8_{FFFC10B6-66E2-4351-A998-9945D4A57614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{5C1FF2D2-B264-4AA6-ADDA-FC9EF3E2FF50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7DCE2BE0-953A-4365-ADEC-B2ECAC53B523}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="190">
   <si>
     <t>User Name</t>
   </si>
@@ -620,6 +620,9 @@
   </si>
   <si>
     <t>Name of modem that is used (Internal or external)</t>
+  </si>
+  <si>
+    <t>SignalTester</t>
   </si>
 </sst>
 </file>
@@ -1119,10 +1122,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,6 +3089,9 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>162</v>
+      </c>
       <c r="B74" s="4" t="s">
         <v>65</v>
       </c>
@@ -3111,196 +3117,162 @@
       <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>162</v>
-      </c>
       <c r="B75" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="D75" s="4">
+        <v>8</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="3">
-        <v>8</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>55</v>
+      <c r="D76" s="4">
+        <v>5</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D77" s="4">
-        <v>8</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="3">
-        <v>20</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="4">
-        <v>20</v>
-      </c>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I79" s="3">
-        <v>8.9314404000248103E+19</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="N79" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" s="3">
-        <v>20</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I80" s="4">
-        <v>8.9610180002248999E+19</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>134</v>
+      <c r="D80" s="4">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I80" s="3">
+        <v>3.92</v>
+      </c>
+      <c r="J80" s="4">
+        <v>3.92</v>
+      </c>
+      <c r="K80" s="4">
+        <v>3.88</v>
+      </c>
+      <c r="L80" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="M80" s="4">
+        <v>3.69</v>
       </c>
       <c r="N80" s="4">
-        <v>8.9610180002248999E+19</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
@@ -3339,124 +3311,158 @@
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C82" s="4" t="s">
+      <c r="B82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="3">
+        <v>20</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="4">
+        <v>20</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I83" s="3">
+        <v>8.9314404000248103E+19</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" s="3">
+        <v>20</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I84" s="4">
+        <v>8.9610180002248999E+19</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N84" s="4">
+        <v>8.9610180002248999E+19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D82" s="4">
-        <v>5</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K82" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L82" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K83" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" s="4">
-        <v>7</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I84" s="3">
-        <v>3.92</v>
-      </c>
-      <c r="J84" s="4">
-        <v>3.92</v>
-      </c>
-      <c r="K84" s="4">
-        <v>3.88</v>
-      </c>
-      <c r="L84" s="4">
-        <v>3.94</v>
-      </c>
-      <c r="M84" s="4">
-        <v>3.69</v>
-      </c>
-      <c r="N84" s="4">
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="N85" s="4" t="s">
-        <v>72</v>
+      <c r="D86" s="3">
+        <v>8</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
